--- a/data/Bainite.xlsx
+++ b/data/Bainite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>k</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>f_eq</t>
         </is>
       </c>
@@ -460,474 +465,6152 @@
         <v>552</v>
       </c>
       <c r="B2" t="n">
-        <v>2.394777412839788e+16</v>
+        <v>1481247.396471968</v>
       </c>
       <c r="C2" t="n">
-        <v>2.680225661481656</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D2" t="n">
+        <v>4.289884221912916e-15</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="B3" t="n">
-        <v>106879799807.421</v>
+        <v>377924.6613930212</v>
       </c>
       <c r="C3" t="n">
-        <v>2.679235196925878</v>
+        <v>2.328378142385132</v>
       </c>
       <c r="D3" t="n">
+        <v>1.032028201495151e-13</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="B4" t="n">
-        <v>5832393326.331944</v>
+        <v>171428.0208357638</v>
       </c>
       <c r="C4" t="n">
-        <v>2.67923653891408</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D4" t="n">
+        <v>6.502469374499527e-13</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="B5" t="n">
-        <v>1280209060.850247</v>
+        <v>98420.36824620834</v>
       </c>
       <c r="C5" t="n">
-        <v>2.679235492907184</v>
+        <v>2.328378142385132</v>
       </c>
       <c r="D5" t="n">
+        <v>2.367064304901762e-12</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="B6" t="n">
-        <v>513681951.6409117</v>
+        <v>64293.5249649857</v>
       </c>
       <c r="C6" t="n">
-        <v>2.67923682713242</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D6" t="n">
+        <v>6.379233517952208e-12</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>502</v>
+        <v>547</v>
       </c>
       <c r="B7" t="n">
-        <v>290626445.2217206</v>
+        <v>45575.2155531695</v>
       </c>
       <c r="C7" t="n">
-        <v>2.679236805885029</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D7" t="n">
+        <v>1.421405038478275e-11</v>
+      </c>
+      <c r="E7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="B8" t="n">
-        <v>206053110.3033224</v>
+        <v>34180.69797982589</v>
       </c>
       <c r="C8" t="n">
-        <v>2.679239729560038</v>
+        <v>2.328378142385132</v>
       </c>
       <c r="D8" t="n">
+        <v>2.777432975687379e-11</v>
+      </c>
+      <c r="E8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="B9" t="n">
-        <v>171802815.6080728</v>
+        <v>26715.58423145448</v>
       </c>
       <c r="C9" t="n">
-        <v>2.679238136861317</v>
+        <v>2.328378142385132</v>
       </c>
       <c r="D9" t="n">
+        <v>4.929670442592301e-11</v>
+      </c>
+      <c r="E9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>472</v>
+        <v>544</v>
       </c>
       <c r="B10" t="n">
-        <v>162186726.3812363</v>
+        <v>21550.09667584983</v>
       </c>
       <c r="C10" t="n">
-        <v>2.679236858465522</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D10" t="n">
+        <v>8.130018774862762e-11</v>
+      </c>
+      <c r="E10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>462</v>
+        <v>543</v>
       </c>
       <c r="B11" t="n">
-        <v>169186805.3675113</v>
+        <v>17821.56597121338</v>
       </c>
       <c r="C11" t="n">
-        <v>2.679243347484113</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D11" t="n">
+        <v>1.265291437458322e-10</v>
+      </c>
+      <c r="E11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>452</v>
+        <v>542</v>
       </c>
       <c r="B12" t="n">
-        <v>191815462.3687492</v>
+        <v>15038.14345922944</v>
       </c>
       <c r="C12" t="n">
-        <v>2.67924345128554</v>
+        <v>2.328378142385132</v>
       </c>
       <c r="D12" t="n">
+        <v>1.878937236985873e-10</v>
+      </c>
+      <c r="E12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="B13" t="n">
-        <v>233650373.3832856</v>
+        <v>12902.47495820203</v>
       </c>
       <c r="C13" t="n">
-        <v>2.679243276628807</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D13" t="n">
+        <v>2.684100534010073e-10</v>
+      </c>
+      <c r="E13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>432</v>
+        <v>540</v>
       </c>
       <c r="B14" t="n">
-        <v>303251910.2609287</v>
+        <v>11226.05095329195</v>
       </c>
       <c r="C14" t="n">
-        <v>2.679243344792012</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D14" t="n">
+        <v>3.711418774706207e-10</v>
+      </c>
+      <c r="E14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>422</v>
+        <v>539</v>
       </c>
       <c r="B15" t="n">
-        <v>416817055.408885</v>
+        <v>9884.579416796914</v>
       </c>
       <c r="C15" t="n">
-        <v>2.679243226795796</v>
+        <v>2.328378142385132</v>
       </c>
       <c r="D15" t="n">
+        <v>4.991449239043185e-10</v>
+      </c>
+      <c r="E15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>412</v>
+        <v>538</v>
       </c>
       <c r="B16" t="n">
-        <v>603992770.5209626</v>
+        <v>8793.357694617362</v>
       </c>
       <c r="C16" t="n">
-        <v>2.679242821197496</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D16" t="n">
+        <v>6.554149055724781e-10</v>
+      </c>
+      <c r="E16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>402</v>
+        <v>537</v>
       </c>
       <c r="B17" t="n">
-        <v>919623251.2748637</v>
+        <v>7893.012772220615</v>
       </c>
       <c r="C17" t="n">
-        <v>2.679242591745652</v>
+        <v>2.328378142385132</v>
       </c>
       <c r="D17" t="n">
+        <v>8.428398011146023e-10</v>
+      </c>
+      <c r="E17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>392</v>
+        <v>536</v>
       </c>
       <c r="B18" t="n">
-        <v>1467610044.911458</v>
+        <v>7140.901564140331</v>
       </c>
       <c r="C18" t="n">
-        <v>2.679242711441998</v>
+        <v>2.328378142385132</v>
       </c>
       <c r="D18" t="n">
+        <v>1.064156839073363e-09</v>
+      </c>
+      <c r="E18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>382</v>
+        <v>535</v>
       </c>
       <c r="B19" t="n">
-        <v>2450533444.497697</v>
+        <v>6505.739755057773</v>
       </c>
       <c r="C19" t="n">
-        <v>2.679242521842418</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D19" t="n">
+        <v>1.321914434217791e-09</v>
+      </c>
+      <c r="E19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>372</v>
+        <v>534</v>
       </c>
       <c r="B20" t="n">
-        <v>4275922856.466682</v>
+        <v>5964.14338361573</v>
       </c>
       <c r="C20" t="n">
-        <v>2.679242664831791</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D20" t="n">
+        <v>1.618439185133772e-09</v>
+      </c>
+      <c r="E20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>362</v>
+        <v>533</v>
       </c>
       <c r="B21" t="n">
-        <v>7790751088.62365</v>
+        <v>5498.34169380002</v>
       </c>
       <c r="C21" t="n">
-        <v>2.679242384767716</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D21" t="n">
+        <v>1.955807930667272e-09</v>
+      </c>
+      <c r="E21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>352</v>
+        <v>532</v>
       </c>
       <c r="B22" t="n">
-        <v>14816256705.19063</v>
+        <v>5094.628373421416</v>
       </c>
       <c r="C22" t="n">
-        <v>2.679242067518328</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D22" t="n">
+        <v>2.335824774551118e-09</v>
+      </c>
+      <c r="E22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>342</v>
+        <v>531</v>
       </c>
       <c r="B23" t="n">
-        <v>29408775999.59109</v>
+        <v>4742.290447780806</v>
       </c>
       <c r="C23" t="n">
-        <v>2.679241683322197</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D23" t="n">
+        <v>2.760002918455309e-09</v>
+      </c>
+      <c r="E23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>332</v>
+        <v>530</v>
       </c>
       <c r="B24" t="n">
-        <v>60938373367.89449</v>
+        <v>4432.853366568585</v>
       </c>
       <c r="C24" t="n">
-        <v>2.679241625357908</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D24" t="n">
+        <v>3.229551090489747e-09</v>
+      </c>
+      <c r="E24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>322</v>
+        <v>529</v>
       </c>
       <c r="B25" t="n">
-        <v>131882052278.4973</v>
+        <v>4159.539782125747</v>
       </c>
       <c r="C25" t="n">
-        <v>2.679241389706329</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D25" t="n">
+        <v>3.745364316179367e-09</v>
+      </c>
+      <c r="E25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>312</v>
+        <v>528</v>
       </c>
       <c r="B26" t="n">
-        <v>298315299381.4442</v>
+        <v>3916.875475456152</v>
       </c>
       <c r="C26" t="n">
-        <v>2.67924153183662</v>
+        <v>2.328378142385132</v>
       </c>
       <c r="D26" t="n">
+        <v>4.308018749917348e-09</v>
+      </c>
+      <c r="E26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>302</v>
+        <v>527</v>
       </c>
       <c r="B27" t="n">
-        <v>705937876785.1696</v>
+        <v>3700.398346554173</v>
       </c>
       <c r="C27" t="n">
-        <v>2.679241045370566</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D27" t="n">
+        <v>4.917770265042103e-09</v>
+      </c>
+      <c r="E27" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>292</v>
+        <v>526</v>
       </c>
       <c r="B28" t="n">
-        <v>542449928913716.8</v>
+        <v>3506.44072183091</v>
       </c>
       <c r="C28" t="n">
-        <v>3.228309349416849</v>
+        <v>2.328378142385132</v>
       </c>
       <c r="D28" t="n">
+        <v>5.574556488427921e-09</v>
+      </c>
+      <c r="E28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>282</v>
+        <v>525</v>
       </c>
       <c r="B29" t="n">
-        <v>770859862020949.5</v>
+        <v>3331.96456455411</v>
       </c>
       <c r="C29" t="n">
-        <v>3.154232084796951</v>
+        <v>2.328378142385125</v>
       </c>
       <c r="D29" t="n">
+        <v>6.27800195954762e-09</v>
+      </c>
+      <c r="E29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>272</v>
+        <v>524</v>
       </c>
       <c r="B30" t="n">
-        <v>1088998574588653</v>
+        <v>3174.435360977883</v>
       </c>
       <c r="C30" t="n">
-        <v>3.079302750433391</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D30" t="n">
+        <v>7.027426093205951e-09</v>
+      </c>
+      <c r="E30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>262</v>
+        <v>523</v>
       </c>
       <c r="B31" t="n">
-        <v>1534955975865510</v>
+        <v>3031.724624538005</v>
       </c>
       <c r="C31" t="n">
-        <v>3.004099903792144</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D31" t="n">
+        <v>7.821853628693587e-09</v>
+      </c>
+      <c r="E31" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252</v>
+        <v>522</v>
       </c>
       <c r="B32" t="n">
-        <v>2169669794908102</v>
+        <v>2902.033814061306</v>
       </c>
       <c r="C32" t="n">
-        <v>2.929247533104759</v>
+        <v>2.32837814238513</v>
       </c>
       <c r="D32" t="n">
+        <v>8.660027255069506e-09</v>
+      </c>
+      <c r="E32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>242</v>
+        <v>521</v>
       </c>
       <c r="B33" t="n">
-        <v>3099664796082274</v>
+        <v>2783.834442632535</v>
       </c>
       <c r="C33" t="n">
-        <v>2.855501337027786</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D33" t="n">
+        <v>9.540422112067591e-09</v>
+      </c>
+      <c r="E33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>232</v>
+        <v>520</v>
       </c>
       <c r="B34" t="n">
-        <v>3591405094712183</v>
+        <v>2675.820546748591</v>
       </c>
       <c r="C34" t="n">
-        <v>2.765816473582642</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D34" t="n">
+        <v>1.046126187806072e-08</v>
+      </c>
+      <c r="E34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
+        <v>519</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2576.870677088202</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.142053617017527e-08</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>518</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2486.017286325003</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.241601899654498e-08</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>517</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2402.421909125126</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.344528801650261e-08</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>516</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2325.354911504568</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.450574438090152e-08</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>515</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2254.178870194373</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.559463294145851e-08</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>514</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2188.334854862933</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.670906263483754e-08</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>513</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2127.33104622038</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.784602686389032e-08</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>512</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2070.733244887198</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.900242371497614e-08</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>511</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2018.156919305405</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.01750758663613e-08</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>510</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1969.260513058317</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.136075005833303e-08</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>509</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1923.739787978052</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.255617601073507e-08</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>508</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1881.323023219131</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.375806468803897e-08</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>507</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1841.76692493241</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.496312582584202e-08</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>506</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1804.853128435065</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.616808464569376e-08</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>505</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1770.385196460067</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.736969769745675e-08</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>504</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1738.186034412241</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.8564767779933e-08</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>503</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1708.09565749743</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.975015790124234e-08</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>502</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1679.969255847754</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.092280425044354e-08</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>501</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1653.675512898295</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3.207972816113613e-08</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>500</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1629.095139710864</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.321804705625905e-08</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>499</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1606.119594029433</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.4334984371073e-08</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>498</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1584.649957853246</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3.542787845837826e-08</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>497</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1564.59595143911</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.649419048637068e-08</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>496</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1545.87506505918</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3.753151134527142e-08</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>495</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1528.41179267766</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.853756758393706e-08</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>494</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1512.136954074834</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.951022640213415e-08</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>493</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1496.987093925479</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4.044749972807519e-08</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>492</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1482.903947998344</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.13475474141691e-08</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>491</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1469.833968040957</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.220867958683749e-08</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>490</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1457.727898093631</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.302935818855386e-08</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>489</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1446.540395975314</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.380819775229159e-08</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>488</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1436.229694532056</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.454396545000247e-08</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>487</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1426.757297960821</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4.523558045793604e-08</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>486</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1418.087709137683</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4.588211268236802e-08</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>485</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1410.188184406933</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4.648278088975452e-08</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>484</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1403.02851273986</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.703695028549951e-08</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>483</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1396.580816561221</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.754412958538728e-08</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>482</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1390.819371876693</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4.800396762337916e-08</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>481</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1385.720445624152</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4.841624953887714e-08</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>480</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1381.262148422572</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D74" t="n">
+        <v>4.878089258579276e-08</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>479</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1377.424301109684</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4.909794160478684e-08</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>478</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1374.188313648877</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4.936756419893861e-08</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>477</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1371.537075150437</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4.959004565185344e-08</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>476</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1369.454853895998</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4.976578362589175e-08</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>475</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1367.927206380968</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4.989528267666962e-08</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>474</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1366.940894499647</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4.997914861855991e-08</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>473</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1366.483810094583</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5.001808277420092e-08</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>472</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1366.5449061767</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5.001287613945922e-08</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>471</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1367.114134197539</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4.996440349357627e-08</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>470</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1368.182386821034</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4.987361748248298e-08</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>469</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1369.741445700694</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D85" t="n">
+        <v>4.974154270161286e-08</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>468</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1371.783933819512</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4.95692698027541e-08</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>467</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1374.303271996094</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4.935794964777337e-08</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>466</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1377.293639200761</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4.910878753037139e-08</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>465</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1380.749936361862</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4.882303748530233e-08</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>464</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1384.667753374624</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4.850199670286045e-08</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>463</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1389.043339053628</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4.814700006480876e-08</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>462</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1393.873573795677</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4.775941481635528e-08</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>461</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1399.155944742833</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4.73406353872375e-08</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>460</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1404.888523255979</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4.689207837349686e-08</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>459</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1411.069944527677</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4.641517769011739e-08</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>458</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1417.699389179806</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4.591137990327351e-08</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>457</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1424.776566706341</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4.538213974968501e-08</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>456</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1432.301700635164</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4.482891584926176e-08</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>455</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1440.275515294871</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D99" t="n">
+        <v>4.425316661606344e-08</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>454</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1448.699224083694</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D100" t="n">
+        <v>4.365634637144552e-08</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>453</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1457.574519147533</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D101" t="n">
+        <v>4.303990166219812e-08</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>452</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1466.903562383032</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4.240526778548895e-08</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>451</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1476.688977690183</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4.175386552144412e-08</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>450</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1486.933844405989</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D104" t="n">
+        <v>4.108709807337313e-08</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>449</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1497.641691857957</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D105" t="n">
+        <v>4.040634821474308e-08</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>448</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1508.816494982125</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3.971297564134367e-08</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>447</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1520.462670956179</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3.900831452629641e-08</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>446</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1532.58507680351</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3.829367127497312e-08</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>445</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1545.189007928683</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D109" t="n">
+        <v>3.757032247628522e-08</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>444</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1558.280197549494</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3.683951304627421e-08</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>443</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1571.864816994693</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D111" t="n">
+        <v>3.610245455944869e-08</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>442</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1585.949476840323</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3.536032376292025e-08</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>441</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1600.541228861199</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3.461426126796852e-08</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>440</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1615.647568777333</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3.386537041335957e-08</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>439</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1631.276439778098</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3.311471629448266e-08</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>438</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1647.436236809959</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3.236332495206923e-08</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>437</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1664.135811616208</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D117" t="n">
+        <v>3.161218271412521e-08</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>436</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1681.384478519721</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D118" t="n">
+        <v>3.08622356844971e-08</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>435</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1699.192020942272</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D119" t="n">
+        <v>3.011438937140658e-08</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>434</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1717.568698656049</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.936950844915882e-08</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>433</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1736.52525576553</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2.86284166462265e-08</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>432</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1756.072929419705</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2.789189675282085e-08</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>431</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1776.223459256805</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.716069074113626e-08</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>430</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1796.98909758568</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.643549999141134e-08</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>429</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1818.382620309925</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.571698561705506e-08</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>428</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1840.417338602487</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.500576888214747e-08</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>427</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1863.107111340737</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.430243170469016e-08</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>426</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1886.466358313371</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.360751723915442e-08</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>425</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1910.510074212485</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2.292153053194342e-08</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>424</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1935.253843426089</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.224493924357304e-08</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>423</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1960.713855647713</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2.157817443152209e-08</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>422</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1986.906922321934</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.092163138786224e-08</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>421</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2013.850493946029</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2.027567052597972e-08</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>420</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2041.562678250154</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.964061831087224e-08</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>419</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2070.062259279881</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.90167682277169e-08</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>418</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2099.368717406971</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.840438178359129e-08</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>417</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2129.502250296173</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.780368953746295e-08</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>416</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2160.483794857385</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.721489215374543e-08</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>415</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2192.33505021502</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.663816147495772e-08</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>414</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2225.078501727853</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.607364160923232e-08</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>413</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2258.737446094978</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.552145002862921e-08</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>412</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2293.33601758566</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.498167867443756e-08</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>411</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2328.899215432717</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.445439506586483e-08</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>410</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2365.452932431737</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.393964340871577e-08</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>409</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2403.023984790285</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.343744570089268e-08</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>408</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2441.640143274159</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.294780283174739e-08</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>407</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2481.330165699803</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.247069567251487e-08</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>406</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2522.123830824863</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.200608615528381e-08</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>405</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2564.051973691472</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.155391833812286e-08</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>404</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2607.146522479523</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.111411945420875e-08</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>403</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2651.440536930441</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.068660094296021e-08</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>402</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2696.968248404652</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.027125946137702e-08</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>401</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2743.765101639313</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D153" t="n">
+        <v>9.867977873963832e-09</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>400</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2791.867798276159</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D154" t="n">
+        <v>9.476626219769035e-09</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>399</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2841.314342232833</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9.097062655251118e-09</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>398</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2892.144086994441</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D156" t="n">
+        <v>8.729134371832215e-09</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>397</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2944.397784906329</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D157" t="n">
+        <v>8.372678487146242e-09</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>396</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2998.117638552494</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D158" t="n">
+        <v>8.027522909137612e-09</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>395</v>
+      </c>
+      <c r="B159" t="n">
+        <v>3053.347354308698</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D159" t="n">
+        <v>7.693487172300181e-09</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>394</v>
+      </c>
+      <c r="B160" t="n">
+        <v>3110.13219816331</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D160" t="n">
+        <v>7.370383245479255e-09</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>393</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3168.519053903597</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D161" t="n">
+        <v>7.058016310772858e-09</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>392</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3228.556483770139</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D162" t="n">
+        <v>6.756185513199656e-09</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>391</v>
+      </c>
+      <c r="B163" t="n">
+        <v>3290.29479168674</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D163" t="n">
+        <v>6.464684680897026e-09</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>390</v>
+      </c>
+      <c r="B164" t="n">
+        <v>3353.786089178582</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D164" t="n">
+        <v>6.18330301572174e-09</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>389</v>
+      </c>
+      <c r="B165" t="n">
+        <v>3419.084364097023</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D165" t="n">
+        <v>5.911825754226878e-09</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>388</v>
+      </c>
+      <c r="B166" t="n">
+        <v>3486.245552274878</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D166" t="n">
+        <v>5.650034799066514e-09</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>387</v>
+      </c>
+      <c r="B167" t="n">
+        <v>3555.327612242512</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D167" t="n">
+        <v>5.397709320978649e-09</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>386</v>
+      </c>
+      <c r="B168" t="n">
+        <v>3626.390603141031</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D168" t="n">
+        <v>5.154626331562349e-09</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>385</v>
+      </c>
+      <c r="B169" t="n">
+        <v>3699.496765975887</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4.920561227144552e-09</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>384</v>
+      </c>
+      <c r="B170" t="n">
+        <v>3774.710608360834</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D170" t="n">
+        <v>4.695288304095873e-09</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>383</v>
+      </c>
+      <c r="B171" t="n">
+        <v>3852.098992910222</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D171" t="n">
+        <v>4.478581246015621e-09</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>382</v>
+      </c>
+      <c r="B172" t="n">
+        <v>3931.731229444344</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D172" t="n">
+        <v>4.270213583258716e-09</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>381</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4013.679171181861</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D173" t="n">
+        <v>4.069959125335576e-09</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>380</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4098.017315100966</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D174" t="n">
+        <v>3.877592366748881e-09</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>379</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4184.822906660445</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D175" t="n">
+        <v>3.692888866882582e-09</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>378</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4274.176049081204</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D176" t="n">
+        <v>3.515625604585063e-09</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>377</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4366.159817398409</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D177" t="n">
+        <v>3.345581308126874e-09</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>376</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4460.860377505689</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D178" t="n">
+        <v>3.182536761235359e-09</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>375</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4558.367110422847</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D179" t="n">
+        <v>3.026275085931655e-09</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>374</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4658.772742031002</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2.876582002917107e-09</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>373</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4762.173478530784</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2.733246070268862e-09</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>372</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4868.669147892187</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2.596058901218719e-09</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>371</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4978.363347578428</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2.464815361793322e-09</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>370</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5091.363598839985</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2.339313749107627e-09</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>369</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5207.781507890537</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2.219355951096583e-09</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>368</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5327.73293429174</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2.104747588478587e-09</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>367</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5451.33816689107</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.995298139735233e-09</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>366</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5578.722107673952</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.890821049894125e-09</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>365</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5710.014463910143</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.79113382388828e-09</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>364</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5845.349948994089</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.696058105260714e-09</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>363</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5984.868492399076</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.605419740972266e-09</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>362</v>
+      </c>
+      <c r="B192" t="n">
+        <v>6128.715459186677</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.519048833058475e-09</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>361</v>
+      </c>
+      <c r="B193" t="n">
+        <v>6277.041879536589</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.436779777866371e-09</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>360</v>
+      </c>
+      <c r="B194" t="n">
+        <v>6430.004688784796</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.358451293589116e-09</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>359</v>
+      </c>
+      <c r="B195" t="n">
+        <v>6587.766978484941</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.283906436800574e-09</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>358</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6750.498259032917</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.212992608673235e-09</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>357</v>
+      </c>
+      <c r="B197" t="n">
+        <v>6918.374734424915</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.145561551547559e-09</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>356</v>
+      </c>
+      <c r="B198" t="n">
+        <v>7091.57958974673</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.081469336498779e-09</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>355</v>
+      </c>
+      <c r="B199" t="n">
+        <v>7270.303292026339</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.02057634253227e-09</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>354</v>
+      </c>
+      <c r="B200" t="n">
+        <v>7454.743905112346</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D200" t="n">
+        <v>9.627472280145871e-10</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>353</v>
+      </c>
+      <c r="B201" t="n">
+        <v>7645.107419278356</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D201" t="n">
+        <v>9.078508949296612e-10</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>352</v>
+      </c>
+      <c r="B202" t="n">
+        <v>7841.608096288559</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D202" t="n">
+        <v>8.557604465279694e-10</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>351</v>
+      </c>
+      <c r="B203" t="n">
+        <v>8044.468830700563</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D203" t="n">
+        <v>8.063531389158877e-10</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>350</v>
+      </c>
+      <c r="B204" t="n">
+        <v>8253.921528221414</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D204" t="n">
+        <v>7.595103271105966e-10</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>349</v>
+      </c>
+      <c r="B205" t="n">
+        <v>8470.207501978277</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D205" t="n">
+        <v>7.151174060664972e-10</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>348</v>
+      </c>
+      <c r="B206" t="n">
+        <v>8693.577887609117</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D206" t="n">
+        <v>6.730637471556544e-10</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>347</v>
+      </c>
+      <c r="B207" t="n">
+        <v>8924.294078129968</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D207" t="n">
+        <v>6.33242630565374e-10</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>346</v>
+      </c>
+      <c r="B208" t="n">
+        <v>9162.628179585687</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D208" t="n">
+        <v>5.955511740541211e-10</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>345</v>
+      </c>
+      <c r="B209" t="n">
+        <v>9408.86348854503</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D209" t="n">
+        <v>5.598902584865878e-10</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>344</v>
+      </c>
+      <c r="B210" t="n">
+        <v>9663.294992560366</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D210" t="n">
+        <v>5.261644505476717e-10</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>343</v>
+      </c>
+      <c r="B211" t="n">
+        <v>9926.229894772099</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D211" t="n">
+        <v>4.942819230151304e-10</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>342</v>
+      </c>
+      <c r="B212" t="n">
+        <v>10197.98816390226</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D212" t="n">
+        <v>4.641543729504937e-10</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>341</v>
+      </c>
+      <c r="B213" t="n">
+        <v>10478.90311095093</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D213" t="n">
+        <v>4.35696938148193e-10</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>340</v>
+      </c>
+      <c r="B214" t="n">
+        <v>10769.32199398049</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D214" t="n">
+        <v>4.088281121635866e-10</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>339</v>
+      </c>
+      <c r="B215" t="n">
+        <v>11069.60665244947</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D215" t="n">
+        <v>3.834696582217894e-10</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>338</v>
+      </c>
+      <c r="B216" t="n">
+        <v>11380.13417263858</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D216" t="n">
+        <v>3.595465222908022e-10</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>337</v>
+      </c>
+      <c r="B217" t="n">
+        <v>11701.29758579731</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D217" t="n">
+        <v>3.369867455845468e-10</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>336</v>
+      </c>
+      <c r="B218" t="n">
+        <v>12033.50660072903</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D218" t="n">
+        <v>3.157213767441495e-10</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>335</v>
+      </c>
+      <c r="B219" t="n">
+        <v>12377.18837263121</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D219" t="n">
+        <v>2.956843839288461e-10</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>334</v>
+      </c>
+      <c r="B220" t="n">
+        <v>12732.78831010396</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D220" t="n">
+        <v>2.768125670314969e-10</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>333</v>
+      </c>
+      <c r="B221" t="n">
+        <v>13100.77092235434</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D221" t="n">
+        <v>2.590454702185129e-10</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>332</v>
+      </c>
+      <c r="B222" t="n">
+        <v>13481.62070873151</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D222" t="n">
+        <v>2.423252949776803e-10</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>331</v>
+      </c>
+      <c r="B223" t="n">
+        <v>13875.84309285287</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D223" t="n">
+        <v>2.265968138441963e-10</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>330</v>
+      </c>
+      <c r="B224" t="n">
+        <v>14283.96540370789</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D224" t="n">
+        <v>2.118072849598063e-10</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>329</v>
+      </c>
+      <c r="B225" t="n">
+        <v>14706.5379062608</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1.979063676075104e-10</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>328</v>
+      </c>
+      <c r="B226" t="n">
+        <v>15144.13488421987</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1.848460388505957e-10</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>327</v>
+      </c>
+      <c r="B227" t="n">
+        <v>15597.35577779063</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1.725805113932295e-10</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>326</v>
+      </c>
+      <c r="B228" t="n">
+        <v>16066.82637939417</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.610661527672501e-10</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>325</v>
+      </c>
+      <c r="B229" t="n">
+        <v>16553.20009050212</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1.502614059393083e-10</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>324</v>
+      </c>
+      <c r="B230" t="n">
+        <v>17057.15924292109</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1.40126711421328e-10</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>323</v>
+      </c>
+      <c r="B231" t="n">
+        <v>17579.41648805531</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.306244309576727e-10</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>322</v>
+      </c>
+      <c r="B232" t="n">
+        <v>18120.71625787651</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.217187728523802e-10</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>321</v>
+      </c>
+      <c r="B233" t="n">
+        <v>18681.83630155237</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1.13375718991006e-10</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>320</v>
+      </c>
+      <c r="B234" t="n">
+        <v>19263.58930191102</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1.055629536033274e-10</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>319</v>
+      </c>
+      <c r="B235" t="n">
+        <v>19866.82457616765</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D235" t="n">
+        <v>9.824979380467322e-11</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>318</v>
+      </c>
+      <c r="B236" t="n">
+        <v>20492.42986559739</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D236" t="n">
+        <v>9.140712194660555e-11</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>317</v>
+      </c>
+      <c r="B237" t="n">
+        <v>21141.33321911563</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D237" t="n">
+        <v>8.500731980026666e-11</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>316</v>
+      </c>
+      <c r="B238" t="n">
+        <v>21814.50497602005</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D238" t="n">
+        <v>7.902420458950546e-11</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>315</v>
+      </c>
+      <c r="B239" t="n">
+        <v>22512.95985346143</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D239" t="n">
+        <v>7.343296688438454e-11</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>314</v>
+      </c>
+      <c r="B240" t="n">
+        <v>23237.75914454085</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D240" t="n">
+        <v>6.821011036028435e-11</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>313</v>
+      </c>
+      <c r="B241" t="n">
+        <v>23990.01303328197</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D241" t="n">
+        <v>6.333339342240842e-11</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>312</v>
+      </c>
+      <c r="B242" t="n">
+        <v>24770.88303310513</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D242" t="n">
+        <v>5.878177269064012e-11</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>311</v>
+      </c>
+      <c r="B243" t="n">
+        <v>25581.58455582387</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D243" t="n">
+        <v>5.453534833524582e-11</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>310</v>
+      </c>
+      <c r="B244" t="n">
+        <v>26423.38961861059</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D244" t="n">
+        <v>5.057531124978847e-11</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>309</v>
+      </c>
+      <c r="B245" t="n">
+        <v>27297.62969682772</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D245" t="n">
+        <v>4.688389204386278e-11</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>308</v>
+      </c>
+      <c r="B246" t="n">
+        <v>28205.69873109765</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D246" t="n">
+        <v>4.344431183487513e-11</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>307</v>
+      </c>
+      <c r="B247" t="n">
+        <v>29149.05629750006</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4.02407348149021e-11</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>306</v>
+      </c>
+      <c r="B248" t="n">
+        <v>30129.23095031927</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D248" t="n">
+        <v>3.725822256605848e-11</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>305</v>
+      </c>
+      <c r="B249" t="n">
+        <v>31147.82374735053</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D249" t="n">
+        <v>3.448269009509407e-11</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>304</v>
+      </c>
+      <c r="B250" t="n">
+        <v>32206.51196838095</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D250" t="n">
+        <v>3.190086355591258e-11</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>303</v>
+      </c>
+      <c r="B251" t="n">
+        <v>33307.05303812216</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D251" t="n">
+        <v>2.95002396266115e-11</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>302</v>
+      </c>
+      <c r="B252" t="n">
+        <v>34451.28866556302</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D252" t="n">
+        <v>2.726904650607757e-11</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>301</v>
+      </c>
+      <c r="B253" t="n">
+        <v>35641.1492124566</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D253" t="n">
+        <v>2.519620649356105e-11</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>300</v>
+      </c>
+      <c r="B254" t="n">
+        <v>36878.65830444737</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D254" t="n">
+        <v>2.327130011352095e-11</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>299</v>
+      </c>
+      <c r="B255" t="n">
+        <v>38165.93769918434</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2.148453174691073e-11</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>298</v>
+      </c>
+      <c r="B256" t="n">
+        <v>39505.21242666797</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1.982669672929136e-11</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>297</v>
+      </c>
+      <c r="B257" t="n">
+        <v>40898.8162180336</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1.828914987543304e-11</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>296</v>
+      </c>
+      <c r="B258" t="n">
+        <v>42349.19723999745</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1.686377538961776e-11</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>295</v>
+      </c>
+      <c r="B259" t="n">
+        <v>43858.92415328179</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1.554295812047449e-11</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>294</v>
+      </c>
+      <c r="B260" t="n">
+        <v>45430.69251449292</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1.43195561189967e-11</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>293</v>
+      </c>
+      <c r="B261" t="n">
+        <v>47067.33154217186</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1.318687445835538e-11</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>292</v>
+      </c>
+      <c r="B262" t="n">
+        <v>48771.81126905296</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1.213864027412919e-11</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>291</v>
+      </c>
+      <c r="B263" t="n">
+        <v>50547.25010398594</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.116897898379157e-11</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>290</v>
+      </c>
+      <c r="B264" t="n">
+        <v>52396.92282847752</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.027239164455452e-11</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>289</v>
+      </c>
+      <c r="B265" t="n">
+        <v>54324.26905441889</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D265" t="n">
+        <v>9.443733409044013e-12</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>288</v>
+      </c>
+      <c r="B266" t="n">
+        <v>56332.90217129025</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D266" t="n">
+        <v>8.678193038739369e-12</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>287</v>
+      </c>
+      <c r="B267" t="n">
+        <v>58426.61881296009</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D267" t="n">
+        <v>7.971273435647057e-12</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>286</v>
+      </c>
+      <c r="B268" t="n">
+        <v>60609.40887616344</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D268" t="n">
+        <v>7.318773153281836e-12</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>285</v>
+      </c>
+      <c r="B269" t="n">
+        <v>62885.46612484469</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D269" t="n">
+        <v>6.716768848692887e-12</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>284</v>
+      </c>
+      <c r="B270" t="n">
+        <v>65259.19941677646</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D270" t="n">
+        <v>6.161598637998038e-12</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>283</v>
+      </c>
+      <c r="B271" t="n">
+        <v>67735.24459127901</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D271" t="n">
+        <v>5.649846318654738e-12</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>282</v>
+      </c>
+      <c r="B272" t="n">
+        <v>70318.47705941183</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D272" t="n">
+        <v>5.178326422500702e-12</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>281</v>
+      </c>
+      <c r="B273" t="n">
+        <v>73014.02514075063</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D273" t="n">
+        <v>4.744070064463324e-12</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>280</v>
+      </c>
+      <c r="B274" t="n">
+        <v>75827.28419380551</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D274" t="n">
+        <v>4.344311552679928e-12</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>279</v>
+      </c>
+      <c r="B275" t="n">
+        <v>78763.93159024861</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D275" t="n">
+        <v>3.976475726703585e-12</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>278</v>
+      </c>
+      <c r="B276" t="n">
+        <v>81829.94258650014</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D276" t="n">
+        <v>3.638165991370267e-12</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>277</v>
+      </c>
+      <c r="B277" t="n">
+        <v>85031.60714979192</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D277" t="n">
+        <v>3.327153014843339e-12</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>88375.54779968318</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D278" t="n">
+        <v>3.041364060297565e-12</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>275</v>
+      </c>
+      <c r="B279" t="n">
+        <v>91868.73853012524</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D279" t="n">
+        <v>2.77887292166538e-12</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>274</v>
+      </c>
+      <c r="B280" t="n">
+        <v>95518.52488157053</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D280" t="n">
+        <v>2.537890434813526e-12</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>273</v>
+      </c>
+      <c r="B281" t="n">
+        <v>99332.64523735782</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D281" t="n">
+        <v>2.316755536487522e-12</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>272</v>
+      </c>
+      <c r="B282" t="n">
+        <v>103319.2534236599</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D282" t="n">
+        <v>2.113926844311048e-12</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>271</v>
+      </c>
+      <c r="B283" t="n">
+        <v>107486.942697723</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1.927974732078696e-12</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>270</v>
+      </c>
+      <c r="B284" t="n">
+        <v>111844.7712149191</v>
+      </c>
+      <c r="C284" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1.757573875524476e-12</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>269</v>
+      </c>
+      <c r="B285" t="n">
+        <v>116402.2890714058</v>
+      </c>
+      <c r="C285" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1.601496244676564e-12</v>
+      </c>
+      <c r="E285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>268</v>
+      </c>
+      <c r="B286" t="n">
+        <v>121169.5670258491</v>
+      </c>
+      <c r="C286" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1.458604519834384e-12</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>267</v>
+      </c>
+      <c r="B287" t="n">
+        <v>126157.2270108627</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.327845909105233e-12</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>266</v>
+      </c>
+      <c r="B288" t="n">
+        <v>131376.4745525194</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1.208246346329939e-12</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>265</v>
+      </c>
+      <c r="B289" t="n">
+        <v>136839.1332245429</v>
+      </c>
+      <c r="C289" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1.098905049102496e-12</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>264</v>
+      </c>
+      <c r="B290" t="n">
+        <v>142557.6812726838</v>
+      </c>
+      <c r="C290" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D290" t="n">
+        <v>9.989894174385474e-13</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>263</v>
+      </c>
+      <c r="B291" t="n">
+        <v>148545.2905543038</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D291" t="n">
+        <v>9.077302544896431e-13</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>262</v>
+      </c>
+      <c r="B292" t="n">
+        <v>154815.867948427</v>
+      </c>
+      <c r="C292" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D292" t="n">
+        <v>8.244172915106727e-13</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>261</v>
+      </c>
+      <c r="B293" t="n">
+        <v>161384.0994025155</v>
+      </c>
+      <c r="C293" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D293" t="n">
+        <v>7.483950000858633e-13</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>260</v>
+      </c>
+      <c r="B294" t="n">
+        <v>168265.4967940434</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D294" t="n">
+        <v>6.790586753888394e-13</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>259</v>
+      </c>
+      <c r="B295" t="n">
+        <v>175476.4477976359</v>
+      </c>
+      <c r="C295" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D295" t="n">
+        <v>6.158507750052399e-13</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>258</v>
+      </c>
+      <c r="B296" t="n">
+        <v>183034.2689622055</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D296" t="n">
+        <v>5.582574985730645e-13</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>257</v>
+      </c>
+      <c r="B297" t="n">
+        <v>190957.2622171743</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D297" t="n">
+        <v>5.05805594201941e-13</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>256</v>
+      </c>
+      <c r="B298" t="n">
+        <v>199264.7750426776</v>
+      </c>
+      <c r="C298" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D298" t="n">
+        <v>4.580593783145066e-13</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>255</v>
+      </c>
+      <c r="B299" t="n">
+        <v>207977.2645556233</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D299" t="n">
+        <v>4.146179562126655e-13</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>254</v>
+      </c>
+      <c r="B300" t="n">
+        <v>217116.3657817517</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D300" t="n">
+        <v>3.751126313068736e-13</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>253</v>
+      </c>
+      <c r="B301" t="n">
+        <v>226704.9644035189</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D301" t="n">
+        <v>3.392044915613223e-13</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>252</v>
+      </c>
+      <c r="B302" t="n">
+        <v>236767.2742947917</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D302" t="n">
+        <v>3.065821622962443e-13</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>251</v>
+      </c>
+      <c r="B303" t="n">
+        <v>247328.9201761628</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2.769597150578376e-13</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>250</v>
+      </c>
+      <c r="B304" t="n">
+        <v>258417.0257492506</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2.500747228108253e-13</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>249</v>
+      </c>
+      <c r="B305" t="n">
+        <v>270060.3076947771</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2.256864522322956e-13</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>248</v>
+      </c>
+      <c r="B306" t="n">
+        <v>282289.1759478051</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2.035741843868264e-13</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>247</v>
+      </c>
+      <c r="B307" t="n">
+        <v>295135.8406941769</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1.835356555436291e-13</v>
+      </c>
+      <c r="E307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>246</v>
+      </c>
+      <c r="B308" t="n">
+        <v>308634.426565392</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1.653856103553994e-13</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>245</v>
+      </c>
+      <c r="B309" t="n">
+        <v>322821.0945448733</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1.489544600586537e-13</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>244</v>
+      </c>
+      <c r="B310" t="n">
+        <v>337734.1721371166</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1.340870387736817e-13</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>243</v>
+      </c>
+      <c r="B311" t="n">
+        <v>353414.292392865</v>
+      </c>
+      <c r="C311" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1.206414513829866e-13</v>
+      </c>
+      <c r="E311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>242</v>
+      </c>
+      <c r="B312" t="n">
+        <v>369904.5424282853</v>
+      </c>
+      <c r="C312" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1.084880068480741e-13</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>241</v>
+      </c>
+      <c r="B313" t="n">
+        <v>387250.6221246354</v>
+      </c>
+      <c r="C313" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D313" t="n">
+        <v>9.75082311872683e-14</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>240</v>
+      </c>
+      <c r="B314" t="n">
+        <v>405501.0137472071</v>
+      </c>
+      <c r="C314" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D314" t="n">
+        <v>8.759395468308327e-14</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>239</v>
+      </c>
+      <c r="B315" t="n">
+        <v>424707.1632789352</v>
+      </c>
+      <c r="C315" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D315" t="n">
+        <v>7.864646821510022e-14</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>238</v>
+      </c>
+      <c r="B316" t="n">
+        <v>444923.6743250147</v>
+      </c>
+      <c r="C316" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D316" t="n">
+        <v>7.057574392688341e-14</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>237</v>
+      </c>
+      <c r="B317" t="n">
+        <v>466208.5155109979</v>
+      </c>
+      <c r="C317" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D317" t="n">
+        <v>6.329971573044496e-14</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>236</v>
+      </c>
+      <c r="B318" t="n">
+        <v>488623.2423680948</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D318" t="n">
+        <v>5.67436154326545e-14</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>235</v>
+      </c>
+      <c r="B319" t="n">
+        <v>512233.2347765892</v>
+      </c>
+      <c r="C319" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D319" t="n">
+        <v>5.083936053323114e-14</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>234</v>
+      </c>
+      <c r="B320" t="n">
+        <v>537107.9511217208</v>
+      </c>
+      <c r="C320" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D320" t="n">
+        <v>4.552498999560703e-14</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>233</v>
+      </c>
+      <c r="B321" t="n">
+        <v>563321.2004065377</v>
+      </c>
+      <c r="C321" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D321" t="n">
+        <v>4.074414452935452e-14</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>232</v>
+      </c>
+      <c r="B322" t="n">
+        <v>590951.4336640973</v>
+      </c>
+      <c r="C322" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D322" t="n">
+        <v>3.64455881476722e-14</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>231</v>
+      </c>
+      <c r="B323" t="n">
+        <v>620082.0561169054</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D323" t="n">
+        <v>3.258276797541083e-14</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>230</v>
+      </c>
+      <c r="B324" t="n">
+        <v>650801.7616460541</v>
+      </c>
+      <c r="C324" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D324" t="n">
+        <v>2.91134094831752e-14</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>229</v>
+      </c>
+      <c r="B325" t="n">
+        <v>683204.8912564955</v>
+      </c>
+      <c r="C325" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D325" t="n">
+        <v>2.599914451162466e-14</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>228</v>
+      </c>
+      <c r="B326" t="n">
+        <v>717391.8173591058</v>
+      </c>
+      <c r="C326" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D326" t="n">
+        <v>2.320516962772488e-14</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>227</v>
+      </c>
+      <c r="B327" t="n">
+        <v>753469.3558358022</v>
+      </c>
+      <c r="C327" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D327" t="n">
+        <v>2.069993252188035e-14</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>226</v>
+      </c>
+      <c r="B328" t="n">
+        <v>791551.2080116564</v>
+      </c>
+      <c r="C328" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D328" t="n">
+        <v>1.845484431210322e-14</v>
+      </c>
+      <c r="E328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>225</v>
+      </c>
+      <c r="B329" t="n">
+        <v>831758.4348289709</v>
+      </c>
+      <c r="C329" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1.644401576914056e-14</v>
+      </c>
+      <c r="E329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>224</v>
+      </c>
+      <c r="B330" t="n">
+        <v>874219.9657037584</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1.464401561518424e-14</v>
+      </c>
+      <c r="E330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>223</v>
+      </c>
+      <c r="B331" t="n">
+        <v>919073.1447463245</v>
+      </c>
+      <c r="C331" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1.303364917904924e-14</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
         <v>222</v>
       </c>
-      <c r="B35" t="n">
-        <v>4245432390612598</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2.679234810083853</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="B332" t="n">
+        <v>966464.3172458406</v>
+      </c>
+      <c r="C332" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1.159375581268105e-14</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>221</v>
+      </c>
+      <c r="B333" t="n">
+        <v>1016549.459556025</v>
+      </c>
+      <c r="C333" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1.03070235882835e-14</v>
+      </c>
+      <c r="E333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>220</v>
+      </c>
+      <c r="B334" t="n">
+        <v>1069494.855776108</v>
+      </c>
+      <c r="C334" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D334" t="n">
+        <v>9.157819902397353e-15</v>
+      </c>
+      <c r="E334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>219</v>
+      </c>
+      <c r="B335" t="n">
+        <v>1125477.824900981</v>
+      </c>
+      <c r="C335" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D335" t="n">
+        <v>8.132036713437094e-15</v>
+      </c>
+      <c r="E335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>218</v>
+      </c>
+      <c r="B336" t="n">
+        <v>1184687.502417827</v>
+      </c>
+      <c r="C336" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D336" t="n">
+        <v>7.216949232814261e-15</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>217</v>
+      </c>
+      <c r="B337" t="n">
+        <v>1247325.680656666</v>
+      </c>
+      <c r="C337" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D337" t="n">
+        <v>6.401086977286629e-15</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>216</v>
+      </c>
+      <c r="B338" t="n">
+        <v>1313607.712560753</v>
+      </c>
+      <c r="C338" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D338" t="n">
+        <v>5.674116171777188e-15</v>
+      </c>
+      <c r="E338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>215</v>
+      </c>
+      <c r="B339" t="n">
+        <v>1383763.483932897</v>
+      </c>
+      <c r="C339" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D339" t="n">
+        <v>5.026732568111372e-15</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>214</v>
+      </c>
+      <c r="B340" t="n">
+        <v>1458038.459638001</v>
+      </c>
+      <c r="C340" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D340" t="n">
+        <v>4.450563816097392e-15</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>213</v>
+      </c>
+      <c r="B341" t="n">
+        <v>1536694.809703363</v>
+      </c>
+      <c r="C341" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D341" t="n">
+        <v>3.938080589500657e-15</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>212</v>
+      </c>
+      <c r="B342" t="n">
+        <v>1620012.62176108</v>
+      </c>
+      <c r="C342" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D342" t="n">
+        <v>3.482515731026843e-15</v>
+      </c>
+      <c r="E342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>211</v>
+      </c>
+      <c r="B343" t="n">
+        <v>1708291.206823317</v>
+      </c>
+      <c r="C343" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D343" t="n">
+        <v>3.077790737654758e-15</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>210</v>
+      </c>
+      <c r="B344" t="n">
+        <v>1801850.505976912</v>
+      </c>
+      <c r="C344" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D344" t="n">
+        <v>2.718448960877815e-15</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>209</v>
+      </c>
+      <c r="B345" t="n">
+        <v>1901032.606232596</v>
+      </c>
+      <c r="C345" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D345" t="n">
+        <v>2.399594945832982e-15</v>
+      </c>
+      <c r="E345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>208</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2006203.374470884</v>
+      </c>
+      <c r="C346" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D346" t="n">
+        <v>2.11683937914397e-15</v>
+      </c>
+      <c r="E346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>207</v>
+      </c>
+      <c r="B347" t="n">
+        <v>2117754.21919723</v>
+      </c>
+      <c r="C347" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1.866249157853691e-15</v>
+      </c>
+      <c r="E347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>206</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2236103.990659446</v>
+      </c>
+      <c r="C348" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D348" t="n">
+        <v>1.644302131232856e-15</v>
+      </c>
+      <c r="E348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>205</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2361701.03079641</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1.447846103760869e-15</v>
+      </c>
+      <c r="E349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>204</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2495025.385487158</v>
+      </c>
+      <c r="C350" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1.274061721360247e-15</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>203</v>
+      </c>
+      <c r="B351" t="n">
+        <v>2636591.192660658</v>
+      </c>
+      <c r="C351" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1.120428894206712e-15</v>
+      </c>
+      <c r="E351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>202</v>
+      </c>
+      <c r="B352" t="n">
+        <v>2786949.261017499</v>
+      </c>
+      <c r="C352" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D352" t="n">
+        <v>9.846964383170679e-16</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>201</v>
+      </c>
+      <c r="B353" t="n">
+        <v>2946689.855416404</v>
+      </c>
+      <c r="C353" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D353" t="n">
+        <v>8.648546447721054e-16</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>200</v>
+      </c>
+      <c r="B354" t="n">
+        <v>3116445.706398877</v>
+      </c>
+      <c r="C354" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D354" t="n">
+        <v>7.591105100446084e-16</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>199</v>
+      </c>
+      <c r="B355" t="n">
+        <v>3296895.262879338</v>
+      </c>
+      <c r="C355" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D355" t="n">
+        <v>6.658653835886522e-16</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>198</v>
+      </c>
+      <c r="B356" t="n">
+        <v>3488766.208725454</v>
+      </c>
+      <c r="C356" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D356" t="n">
+        <v>5.836948097566988e-16</v>
+      </c>
+      <c r="E356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>197</v>
+      </c>
+      <c r="B357" t="n">
+        <v>3692839.265809869</v>
+      </c>
+      <c r="C357" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D357" t="n">
+        <v>5.113303603650451e-16</v>
+      </c>
+      <c r="E357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>196</v>
+      </c>
+      <c r="B358" t="n">
+        <v>3909952.308146428</v>
+      </c>
+      <c r="C358" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D358" t="n">
+        <v>4.476432719434175e-16</v>
+      </c>
+      <c r="E358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>195</v>
+      </c>
+      <c r="B359" t="n">
+        <v>4141004.813945003</v>
+      </c>
+      <c r="C359" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D359" t="n">
+        <v>3.91629717999019e-16</v>
+      </c>
+      <c r="E359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>194</v>
+      </c>
+      <c r="B360" t="n">
+        <v>4386962.68485288</v>
+      </c>
+      <c r="C360" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D360" t="n">
+        <v>3.423975615913071e-16</v>
+      </c>
+      <c r="E360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>193</v>
+      </c>
+      <c r="B361" t="n">
+        <v>4648863.464313874</v>
+      </c>
+      <c r="C361" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D361" t="n">
+        <v>2.991544472609276e-16</v>
+      </c>
+      <c r="E361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>192</v>
+      </c>
+      <c r="B362" t="n">
+        <v>4927821.989893629</v>
+      </c>
+      <c r="C362" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D362" t="n">
+        <v>2.611971039689022e-16</v>
+      </c>
+      <c r="E362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>191</v>
+      </c>
+      <c r="B363" t="n">
+        <v>5225036.517617671</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D363" t="n">
+        <v>2.279017422632234e-16</v>
+      </c>
+      <c r="E363" t="n">
         <v>1</v>
       </c>
     </row>
